--- a/attendance.xlsx
+++ b/attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Machine_Learning\YOUTUBE\Deepface\face_recog_attendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohsin/Desktop/face_recog_attendance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91740C9D-04FF-4D46-9FF2-02750E5464BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B972075C-F75E-9F45-B6D5-D43B9171D317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3E59AE73-E9BA-47D7-94BF-D68AD927B5EB}"/>
+    <workbookView xWindow="740" yWindow="3620" windowWidth="29040" windowHeight="15720" xr2:uid="{3E59AE73-E9BA-47D7-94BF-D68AD927B5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+  <si>
+    <t>STUDENT</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>./Database/Asif Iqbal/asif.jpeg</t>
+  </si>
+  <si>
+    <t>Asif Iqbal</t>
+  </si>
+  <si>
+    <t>Nidra</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,8 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +407,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28C4D4F-C316-46E7-B7D2-6901662C2ADE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45282</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.71458333333333324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45278</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.36180555555555555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45266</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.63124999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45262</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.20902777777777778</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>